--- a/biology/Zoologie/Chelonoidis_chilensis/Chelonoidis_chilensis.xlsx
+++ b/biology/Zoologie/Chelonoidis_chilensis/Chelonoidis_chilensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chelonoidis chilensis, la Tortue d'Argentine, est une espèce de tortues de la famille des Testudinidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chelonoidis chilensis, la Tortue d'Argentine, est une espèce de tortues de la famille des Testudinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Argentine dans les provinces de Buenos Aires, de La Pampa, de Mendoza, de Río Negro, de Catamarca, du Chaco, de Córdoba, de Formosa, de La Rioja, de Salta, de San Juan, de San Luis, de Santa Fe, de Santiago del Estero et de Tucumán ;
 en Bolivie dans les départements de Santa Cruz et de Tarija ;
 au Paraguay.</t>
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de chil et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Chili, lieu apparemment en erreur.
 </t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gray, 1870 : Notice of a new Chilian tortoise (Testudo chilensis). Annals and Magazine of Natural History, sér. 4, vol. 6, p. 190–191 (texte intégral).</t>
         </is>
